--- a/MCQs-Practice Tests/MCQs - Sample 1 - Set 1 of 2.xlsx
+++ b/MCQs-Practice Tests/MCQs - Sample 1 - Set 1 of 2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20411"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online Training\ACE\Ericsson\Java Basics June 2024\MCQs-Practice Tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2029C27D-4999-4CEF-8580-6771C4492162}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MCQ's" sheetId="1" r:id="rId1"/>
@@ -263,15 +269,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -354,163 +356,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,194 +374,8 @@
         <bgColor indexed="24"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -746,255 +411,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="30">
@@ -1008,20 +431,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1045,7 +468,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1085,62 +508,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="Normal_Sheet1" xfId="8"/>
-    <cellStyle name="60% - Accent4" xfId="9" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="11" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="12" builtinId="17"/>
-    <cellStyle name="Note" xfId="13" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="14" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="15" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
-    <cellStyle name="Title" xfId="17" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="18" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="19" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="20" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="21" builtinId="19"/>
-    <cellStyle name="Input" xfId="22" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="23" builtinId="40"/>
-    <cellStyle name="Good" xfId="24" builtinId="26"/>
-    <cellStyle name="Output" xfId="25" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="27" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="28" builtinId="24"/>
-    <cellStyle name="Total" xfId="29" builtinId="25"/>
-    <cellStyle name="Bad" xfId="30" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="31" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="32" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1398,33 +777,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="1" width="6.375" customWidth="1"/>
-    <col min="2" max="2" width="60.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.36328125" customWidth="1"/>
+    <col min="2" max="2" width="60.36328125" style="2" customWidth="1"/>
     <col min="3" max="3" width="19" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.08984375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.08984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.6328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" style="2" customWidth="1"/>
     <col min="8" max="253" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.75" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1447,7 +825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="78.75" spans="1:7">
+    <row r="2" spans="1:7" ht="78">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1468,7 +846,7 @@
       </c>
       <c r="G2"/>
     </row>
-    <row r="3" ht="31.5" spans="1:7">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1489,7 +867,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" ht="60" spans="1:7">
+    <row r="4" spans="1:7" ht="45">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1510,7 +888,7 @@
       </c>
       <c r="G4"/>
     </row>
-    <row r="5" ht="75" spans="1:7">
+    <row r="5" spans="1:7" ht="75">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1531,7 +909,7 @@
       </c>
       <c r="G5"/>
     </row>
-    <row r="6" ht="31.5" spans="1:7">
+    <row r="6" spans="1:7" ht="31.2">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1552,7 +930,7 @@
       </c>
       <c r="G6"/>
     </row>
-    <row r="7" ht="173.25" spans="1:7">
+    <row r="7" spans="1:7" ht="171.6">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1573,7 +951,7 @@
       </c>
       <c r="G7"/>
     </row>
-    <row r="8" ht="39" spans="1:7">
+    <row r="8" spans="1:7" ht="38.4">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1594,7 +972,7 @@
       </c>
       <c r="G8"/>
     </row>
-    <row r="9" ht="97.5" spans="1:7">
+    <row r="9" spans="1:7" ht="96">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1615,7 +993,7 @@
       </c>
       <c r="G9"/>
     </row>
-    <row r="10" ht="117" spans="1:7">
+    <row r="10" spans="1:7" ht="115.2">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1636,7 +1014,7 @@
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" ht="78" spans="1:7">
+    <row r="11" spans="1:7" ht="76.8">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1653,11 +1031,11 @@
         <v>8.1</v>
       </c>
       <c r="F11" s="18">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G11"/>
     </row>
-    <row r="12" ht="18.75" spans="1:7">
+    <row r="12" spans="1:7" ht="18.600000000000001">
       <c r="A12" s="19"/>
       <c r="B12" s="20"/>
       <c r="C12" s="16"/>
@@ -1666,7 +1044,7 @@
       <c r="F12" s="16"/>
       <c r="G12"/>
     </row>
-    <row r="13" ht="18.75" spans="1:7">
+    <row r="13" spans="1:7" ht="18.600000000000001">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
       <c r="C13" s="16"/>
@@ -1783,7 +1161,7 @@
       <c r="F25" s="21"/>
       <c r="G25"/>
     </row>
-    <row r="26" ht="14.25" spans="1:7">
+    <row r="26" spans="1:7" ht="13.8">
       <c r="A26" s="19"/>
       <c r="B26" s="22"/>
       <c r="C26" s="23"/>
@@ -1792,7 +1170,7 @@
       <c r="F26" s="22"/>
       <c r="G26"/>
     </row>
-    <row r="27" ht="14.25" spans="1:7">
+    <row r="27" spans="1:7" ht="13.8">
       <c r="A27" s="19"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -1801,7 +1179,7 @@
       <c r="F27" s="21"/>
       <c r="G27"/>
     </row>
-    <row r="28" ht="14.25" spans="1:7">
+    <row r="28" spans="1:7" ht="13.8">
       <c r="A28" s="19"/>
       <c r="B28" s="24"/>
       <c r="C28" s="22"/>
@@ -1963,7 +1341,7 @@
       <c r="F45" s="21"/>
       <c r="G45"/>
     </row>
-    <row r="46" ht="14.25" spans="1:7">
+    <row r="46" spans="1:7" ht="13.8">
       <c r="A46" s="19"/>
       <c r="B46" s="22"/>
       <c r="C46" s="23"/>
@@ -2953,7 +2331,7 @@
       <c r="F155" s="27"/>
       <c r="G155"/>
     </row>
-    <row r="156" spans="2:7">
+    <row r="156" spans="1:7">
       <c r="B156"/>
       <c r="C156" s="29"/>
       <c r="D156" s="29"/>
@@ -2961,7 +2339,7 @@
       <c r="F156"/>
       <c r="G156"/>
     </row>
-    <row r="157" spans="2:7">
+    <row r="157" spans="1:7">
       <c r="B157"/>
       <c r="C157" s="29"/>
       <c r="D157" s="29"/>
@@ -2969,7 +2347,7 @@
       <c r="F157"/>
       <c r="G157"/>
     </row>
-    <row r="158" spans="2:7">
+    <row r="158" spans="1:7">
       <c r="B158"/>
       <c r="C158" s="29"/>
       <c r="D158" s="29"/>
@@ -2977,7 +2355,7 @@
       <c r="F158"/>
       <c r="G158"/>
     </row>
-    <row r="159" spans="2:7">
+    <row r="159" spans="1:7">
       <c r="B159"/>
       <c r="C159" s="29"/>
       <c r="D159" s="29"/>
@@ -2985,7 +2363,7 @@
       <c r="F159"/>
       <c r="G159"/>
     </row>
-    <row r="160" spans="2:7">
+    <row r="160" spans="1:7">
       <c r="B160"/>
       <c r="C160" s="29"/>
       <c r="D160" s="29"/>
@@ -3355,7 +2733,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
